--- a/cyber_traits_project.xlsx
+++ b/cyber_traits_project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\onaki\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yafit Shneor\GitHub\cyberTraits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D38629D-E395-440F-A515-F0A9DAECFC01}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F21F9C-7E4D-48D6-B6D4-60024B20B1A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1E004A04-5E3F-4E0A-BD1B-1F5248A47DD5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1E004A04-5E3F-4E0A-BD1B-1F5248A47DD5}"/>
   </bookViews>
   <sheets>
     <sheet name="data from the beiwe app" sheetId="1" r:id="rId1"/>
@@ -270,9 +270,6 @@
     <t>כמות זמן</t>
   </si>
   <si>
-    <t>יום אחד</t>
-  </si>
-  <si>
     <t>Mean Amplitude Deviation</t>
   </si>
   <si>
@@ -308,7 +305,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -348,7 +345,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -455,7 +452,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -473,7 +470,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -483,7 +480,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -501,7 +498,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -519,7 +516,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -532,7 +529,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -542,12 +539,15 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>: to check witch hash function they used, for recognize our users. (for matching the questionnaire to its app data)</t>
     </r>
+  </si>
+  <si>
+    <t>לכל שעה ביום</t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -578,7 +578,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -632,11 +632,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -853,7 +853,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1155,15 +1155,15 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="48.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="56.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="56.296875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="6" width="46.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="46.69921875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.09765625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1206,10 +1206,10 @@
         <v>37</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1226,10 +1226,10 @@
         <v>39</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1263,10 +1263,10 @@
         <v>41</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1283,10 +1283,10 @@
         <v>44</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1299,11 +1299,11 @@
       <c r="E12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="F12" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1320,10 +1320,10 @@
         <v>48</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="69" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="69" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -1368,10 +1368,10 @@
         <v>52</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1388,20 +1388,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{762BC438-58B3-4923-B652-B49F40252BF1}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="16.09765625" style="5" customWidth="1"/>
     <col min="2" max="2" width="29" style="5" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="49.3984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="29.59765625" style="5" customWidth="1"/>
     <col min="5" max="5" width="21" style="5" customWidth="1"/>
     <col min="6" max="6" width="26" style="6" customWidth="1"/>
     <col min="7" max="9" width="9" style="5"/>
-    <col min="10" max="10" width="9.42578125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.3984375" style="5" customWidth="1"/>
     <col min="11" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -1437,7 +1437,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>62</v>
       </c>
@@ -1445,33 +1445,33 @@
         <v>63</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="132" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1479,79 +1479,79 @@
     </row>
     <row r="6" spans="1:10" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="E6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="C8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="5" t="s">
+    <row r="10" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="F10" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/cyber_traits_project.xlsx
+++ b/cyber_traits_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yafit Shneor\GitHub\cyberTraits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F21F9C-7E4D-48D6-B6D4-60024B20B1A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4C725A-74F1-4CE8-866F-66425B3E1C07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1E004A04-5E3F-4E0A-BD1B-1F5248A47DD5}"/>
   </bookViews>
@@ -396,12 +396,155 @@
     <t>סיכום המאמר:</t>
   </si>
   <si>
-    <t>מחקרים קודמים הראו שאפשר לחזות תכוות אישיות ע"י הסטוריית השימוש בפלאפון כמו- שיחות, הודעות, שימוש באפליקציות ומיקומים.
+    <t>נבדק על כל 2 ימים שונים, בתקופת זמן T</t>
+  </si>
+  <si>
+    <t>בדיקת נכונות המחקר</t>
+  </si>
+  <si>
+    <t>No Need</t>
+  </si>
+  <si>
+    <t>נותן את הMAC של  רשתות הWIFI שבאזור שלו. 
+לפי מה שראינו, נותן מידע כל 5 דקות.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">מחשבים בכל יום- בוקר, צהריים ולילה, את מספר הפעמים שבהם מסך הפלאפון  היה דלוק, וכן את סך הזמן הזמן שהיה דלוק.
+על זה עושים ממוצע וסטיית תקן על כל הימים הנבדקים.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>סה"כ 12 נתונים.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MAD = 1/n ∑ | ri - r' |
+מחשבים את זה לכל שעה ביום, ואת עושים ממוצע של של כל שעה בימים הנבדקים.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>סה"כ 24 נתונים</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">סטיית תקן:
+מחשבים סטיית תקן של שלושת ערכי המיקום לפי בוקר, ערב ולילה, ועליהם עושים ממוצע.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>סה"כ 9 נתונים.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">מחשבים את מספר הMACים השונים שהמשתמש נמצא בקרבתם בבוקר, ערב ולילה.
+עליהם עושים ממוצע וסטיית תקן על כל הימים הנבדקים- בוקר, ערב ולילה.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>סה"כ 6 נתונים.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TODO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: to check witch hash function they used, for recognize our users. (for matching the questionnaire to its app data)</t>
+    </r>
+  </si>
+  <si>
+    <t>לכל שעה ביום</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">מחקרים קודמים הראו שאפשר לחזות תכוות אישיות ע"י הסטוריית השימוש בפלאפון כמו- שיחות, הודעות, שימוש באפליקציות ומיקומים. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ציונים 1-5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 מחקרים מצביעים על כך שלפעילות פיזית יש השפעה חזקה על תכונות האישיות.
 בפלאפונים המתקדמים ובמכשירים נוספים ישנם מדי תאוצה שמזהים פעילות פיזית של המשתמש.
 כדי לחזות תכונות אישיות דרך פלאפון, המחקרים מתמקדים בעיקר בחקירת פעולות בפלאפון ושימוש באפליקציות.
 הם הראשונים שהחליטו לחקור את הקורלציה בין מדי התאוצה בפלאפון לבין אישיות המשתמש. הם בדקו את זה על גברים ועל נשים בנפרד.
-5 תכונות אישיות מרכזיות:
+5 תכונות אישיות מרכזיות: 
 1. מוחצנות- extraversion - משקף את מידת האנרגטיות, החברותיות והדיבור.
 2. פתיחות - openess - משקף את מידת ההמצאה והסקרנות.
 3. הסכמתיות - agreeableness - משקף את מידת החברתיות והחמלה על האחר, לעומת חשדנות ועוינות כלפי אחרים.
@@ -427,134 +570,14 @@
 2.  שיטת ההערכה פשוטה יחסית. צריך שיטה מקיפה יותר.
 3. קיימות הטיות בין  נתוני האמת לנתונים המתקבלים. וזה משפיע על ביצועי החיזוי.(למשל לענות בצורה לא אמינה על הסקר, אי הבנה של המדידה)
 הם בעצם התמקדו בלמוצא 3 דברים: דיכאון, רגולריות ומגוון.</t>
-  </si>
-  <si>
-    <t>נבדק על כל 2 ימים שונים, בתקופת זמן T</t>
-  </si>
-  <si>
-    <t>בדיקת נכונות המחקר</t>
-  </si>
-  <si>
-    <t>No Need</t>
-  </si>
-  <si>
-    <t>נותן את הMAC של  רשתות הWIFI שבאזור שלו. 
-לפי מה שראינו, נותן מידע כל 5 דקות.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">מחשבים בכל יום- בוקר, צהריים ולילה, את מספר הפעמים שבהם מסך הפלאפון  היה דלוק, וכן את סך הזמן הזמן שהיה דלוק.
-על זה עושים ממוצע וסטיית תקן על כל הימים הנבדקים.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>סה"כ 12 נתונים.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">MAD = 1/n ∑ | ri - r' |
-מחשבים את זה לכל שעה ביום, ואת עושים ממוצע של של כל שעה בימים הנבדקים.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>סה"כ 24 נתונים</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">סטיית תקן:
-מחשבים סטיית תקן של שלושת ערכי המיקום לפי בוקר, ערב ולילה, ועליהם עושים ממוצע.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>סה"כ 9 נתונים.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">מחשבים את מספר הMACים השונים שהמשתמש נמצא בקרבתם בבוקר, ערב ולילה.
-עליהם עושים ממוצע וסטיית תקן על כל הימים הנבדקים- בוקר, ערב ולילה.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>סה"כ 6 נתונים.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TODO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: to check witch hash function they used, for recognize our users. (for matching the questionnaire to its app data)</t>
-    </r>
-  </si>
-  <si>
-    <t>לכל שעה ביום</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -578,6 +601,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1151,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB7DC93-3FDB-4E1D-9AC1-2E3E85A60D4E}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1206,7 +1237,7 @@
         <v>37</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
@@ -1226,7 +1257,7 @@
         <v>39</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
@@ -1263,7 +1294,7 @@
         <v>41</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="110.4" x14ac:dyDescent="0.25">
@@ -1283,7 +1314,7 @@
         <v>44</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="69" x14ac:dyDescent="0.25">
@@ -1300,7 +1331,7 @@
         <v>45</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
@@ -1320,7 +1351,7 @@
         <v>48</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
@@ -1368,10 +1399,10 @@
         <v>52</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1388,8 +1419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{762BC438-58B3-4923-B652-B49F40252BF1}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1451,7 +1482,7 @@
         <v>66</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
@@ -1491,7 +1522,7 @@
         <v>72</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
@@ -1511,7 +1542,7 @@
         <v>76</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
@@ -1531,7 +1562,7 @@
         <v>77</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1541,7 +1572,7 @@
     </row>
     <row r="22" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>

--- a/cyber_traits_project.xlsx
+++ b/cyber_traits_project.xlsx
@@ -1,32 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yafit Shneor\GitHub\cyberTraits\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\onaki\Downloads\cyberTraits-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4C725A-74F1-4CE8-866F-66425B3E1C07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70975497-3168-4423-B490-87A7658AB711}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1E004A04-5E3F-4E0A-BD1B-1F5248A47DD5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1E004A04-5E3F-4E0A-BD1B-1F5248A47DD5}"/>
   </bookViews>
   <sheets>
     <sheet name="data from the beiwe app" sheetId="1" r:id="rId1"/>
-    <sheet name="&quot;מאמר &quot;התחלת המסע " sheetId="4" r:id="rId2"/>
+    <sheet name="sensors data" sheetId="5" r:id="rId2"/>
+    <sheet name="&quot;מאמר &quot;התחלת המסע " sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="202">
   <si>
     <t>Column1</t>
   </si>
@@ -305,7 +312,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -345,7 +352,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -419,7 +426,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -428,8 +435,8 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">MAD = 1/n ∑ | ri - r' |
-מחשבים את זה לכל שעה ביום, ואת עושים ממוצע של של כל שעה בימים הנבדקים.
+      <t xml:space="preserve">סטיית תקן:
+מחשבים סטיית תקן של שלושת ערכי המיקום לפי בוקר, ערב ולילה, ועליהם עושים ממוצע.
 </t>
     </r>
     <r>
@@ -437,27 +444,17 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>סה"כ 24 נתונים</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">סטיית תקן:
-מחשבים סטיית תקן של שלושת ערכי המיקום לפי בוקר, ערב ולילה, ועליהם עושים ממוצע.
+      <t>סה"כ 9 נתונים.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">מחשבים את מספר הMACים השונים שהמשתמש נמצא בקרבתם בבוקר, ערב ולילה.
+עליהם עושים ממוצע וסטיית תקן על כל הימים הנבדקים- בוקר, ערב ולילה.
 </t>
     </r>
     <r>
@@ -465,38 +462,20 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>סה"כ 9 נתונים.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">מחשבים את מספר הMACים השונים שהמשתמש נמצא בקרבתם בבוקר, ערב ולילה.
-עליהם עושים ממוצע וסטיית תקן על כל הימים הנבדקים- בוקר, ערב ולילה.
-</t>
-    </r>
+      <t>סה"כ 6 נתונים.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>סה"כ 6 נתונים.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -506,7 +485,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -525,7 +504,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -535,7 +514,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -572,16 +551,442 @@
 הם בעצם התמקדו בלמוצא 3 דברים: דיכאון, רגולריות ומגוון.</t>
     </r>
   </si>
+  <si>
+    <t>sensor</t>
+  </si>
+  <si>
+    <t>file name</t>
+  </si>
+  <si>
+    <t>column 1</t>
+  </si>
+  <si>
+    <t>column 2</t>
+  </si>
+  <si>
+    <t>column 3</t>
+  </si>
+  <si>
+    <t>column 4</t>
+  </si>
+  <si>
+    <t>column 5</t>
+  </si>
+  <si>
+    <t>yyyy-MM-dd hh_mm_ss</t>
+  </si>
+  <si>
+    <t>folder name</t>
+  </si>
+  <si>
+    <t>power states</t>
+  </si>
+  <si>
+    <t>power_state</t>
+  </si>
+  <si>
+    <t>wifi</t>
+  </si>
+  <si>
+    <t>survey answers</t>
+  </si>
+  <si>
+    <t>survey_answers</t>
+  </si>
+  <si>
+    <t>survey timings</t>
+  </si>
+  <si>
+    <t>survey_timings</t>
+  </si>
+  <si>
+    <t>relevant for research</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>UTC time</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>column 6</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MAD = 1/n ∑ | ri - r' |
+מחשבים את זה לכל שעה ביום, ואז עושים ממוצע של של כל שעה בימים הנבדקים.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>סה"כ 24 נתונים</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>explanation column 1</t>
+  </si>
+  <si>
+    <t>explanation column 2</t>
+  </si>
+  <si>
+    <t>explanation column 3</t>
+  </si>
+  <si>
+    <t>explanation column 4</t>
+  </si>
+  <si>
+    <t>explanation column 5</t>
+  </si>
+  <si>
+    <t>explanation column 6</t>
+  </si>
+  <si>
+    <t>תאוצה על ציר ה-X</t>
+  </si>
+  <si>
+    <t>תאוצה על ציר ה-Y</t>
+  </si>
+  <si>
+    <t>תאוצה על ציר ה-Z</t>
+  </si>
+  <si>
+    <t>אנו מחשבות עבור כל שעה את ה-MAD שלה. 
+בכל שעה אנו בודקים כל שניה. אם יש שניה שבה אין לנו מידע על התאוצה, אנו נסמן את זמן זה ב-0,0,0, כיון שלא היתה תאוצה בזמן זה. לוקחים את כל נתוני התאוצה על שלושלת המימדים, ומחשבים MAD(מתואר בעמוד המאמר), כאשר N=60*60</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">רצף של ספרות המרכיבות את התאריך והשעה בו התרחש האירוע.
+מוצג באופן עקבי עולה לצורך השוואה.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Not in use</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">yyyy-MM-ddThh:mm:ss.mmm
+(2019-11-07T13:24:39.313)
+</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>1. ישנם מכשירים שלא דוגמים את מד התאוצה כאשר המסך מכובה.
+2. ישנם מכשירים שמנטרלים לגמרי את דגימות התאוצה.
+3. נתוני התאוצה יתקבלו במרחב [20,20-] אך ישנם מכשירים שהנתונים בהם יהיו במרחב [10,10-].</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>yyyy-MM-ddThh:mm:ss.mmm
+(2019-11-07T13:24:39.313)</t>
+  </si>
+  <si>
+    <t>מצבי מסך המכשיר:
+1. Device Idle (Doze) state change signal received; device in idle state.
+כאשר המסך מכובה, התאוצה מינימלית ולא מוטען. סוג של מצב שינה. יוצא ממצב זה, כאשר צריך לעשות משימות ברקע.
+2. Device Idle (Doze) state change signal received; device not in idle state.
+אין לזה מידע מפורט בANDROID.
+3. Screen turned on
+כאשר המסך נדלק.
+4. Screen turned off
+כאשר המסך נכבה.</t>
+  </si>
+  <si>
+    <t>__</t>
+  </si>
+  <si>
+    <t>1. סוכמים את משך הזמן בו המכשיר היה דלוק, ז"א מאז שנדלק עד שנכבה. סוכמים זאת עבור כל חלק זמן ביום- יום, ערב ולילה. עבור כל חלק ביום אנו מחשבים ממוצע וסטיית תקן.
+2. סופרים כמה פעמים המכשיר הודלק. סופרים זאת עבור כל חלק ביום- יום, ערב ולילה. עבור כל חלק ביום מחשבים ממוצע וסטיית תקן.</t>
+  </si>
+  <si>
+    <t>אנו לא מתייחסים למצבים 1, 2.</t>
+  </si>
+  <si>
+    <t>Not in use</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>altitude</t>
+  </si>
+  <si>
+    <t>קו רוחב- מציין עד כמה נקודה על פני כדור הארץ נמצאת מדרום או מצפון לקו המשוה.</t>
+  </si>
+  <si>
+    <t>קו אורך- מציין עד כמה נקודה על פני כדור הארץ נמצאת ממזרח או ממערב לקו גריניץ'.</t>
+  </si>
+  <si>
+    <t>כל 5 דקות מחשבים את המרחק שעברנו. אם אין מידע על הזמן הספיצפי הזה, לוקחים את המידע על המיקום האחרון שנקלט (לא נרשם שינוי במיקום -&gt; נמצא באותו מקום).
+סוכמים את המרחקים שעברנו עבור כל חלק ביום- יום, ערב ולילה. ועל זה מחשבים ממוצע וסטיית תקן.</t>
+  </si>
+  <si>
+    <t>חישוב במרחק, נעשה ע"י פונקציה קיימת המחשבת מרחקים בין נקודות על הגלובוס.
+פונקציה זו מחשבת מרחקים אוויריים.</t>
+  </si>
+  <si>
+    <t>hashed MAC</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>RSSI</t>
+  </si>
+  <si>
+    <t>מספר ה-MAC של מכשיר ה-WIFI שנמצא בסביבת המכשיר.
+ה-MAC מגיע בצורה מוצפנת.</t>
+  </si>
+  <si>
+    <t>תמיד יהיה 2.4GHZ או 5GHZ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">סופרים עבור כל חלק ביום, כמה WIFI שונים היו בסביבת במכשיר.
+על זה מחשבים ממוצע וסטיית תקן. </t>
+  </si>
+  <si>
+    <t>patient_id</t>
+  </si>
+  <si>
+    <t>bluetooth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">סופרים עבור כל חלק ביום, כמה מכשירים שונים היו בסביבת במכשיר.
+על זה מחשבים ממוצע וסטיית תקן. </t>
+  </si>
+  <si>
+    <t>שם המשתמש של המכשיר באפליקציה</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>מספר ה-MAC המוצפן של המכשיר</t>
+  </si>
+  <si>
+    <t>phone_number</t>
+  </si>
+  <si>
+    <t>מספר הטלפון המוצפן של המכשיר</t>
+  </si>
+  <si>
+    <t>device_id</t>
+  </si>
+  <si>
+    <t>device_os</t>
+  </si>
+  <si>
+    <t>column 7</t>
+  </si>
+  <si>
+    <t>column 8</t>
+  </si>
+  <si>
+    <t>column 9</t>
+  </si>
+  <si>
+    <t>column 10</t>
+  </si>
+  <si>
+    <t>column 11</t>
+  </si>
+  <si>
+    <t>explanation column 7</t>
+  </si>
+  <si>
+    <t>explanation column 8</t>
+  </si>
+  <si>
+    <t>explanation column 9</t>
+  </si>
+  <si>
+    <t>explanation column 10</t>
+  </si>
+  <si>
+    <t>explanation column 11</t>
+  </si>
+  <si>
+    <t>explanation column 14</t>
+  </si>
+  <si>
+    <t>explanation column 13</t>
+  </si>
+  <si>
+    <t>explanation column 12</t>
+  </si>
+  <si>
+    <t>column 14</t>
+  </si>
+  <si>
+    <t>column 13</t>
+  </si>
+  <si>
+    <t>column 12</t>
+  </si>
+  <si>
+    <t>מערכת הפעלה של המכשיר לדוג אנדרואיד</t>
+  </si>
+  <si>
+    <t>os_version</t>
+  </si>
+  <si>
+    <t>גרסת מערכת הפעלה</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>hardware_id</t>
+  </si>
+  <si>
+    <t>זיהוי חומרה</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>גרסת המכשיר</t>
+  </si>
+  <si>
+    <t>beiwe_version</t>
+  </si>
+  <si>
+    <t>גרסת האפליקציה</t>
+  </si>
+  <si>
+    <t>manufacturer</t>
+  </si>
+  <si>
+    <t>זיהוי המכשיר</t>
+  </si>
+  <si>
+    <t>שם חברת הפלאפון. 
+לדוג נוקייה.</t>
+  </si>
+  <si>
+    <t>X
+we are not using the app surveys</t>
+  </si>
+  <si>
+    <t>X 
+we are not using the app surveys</t>
+  </si>
+  <si>
+    <t>the data we are taking</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">אינדיקציה לחוזק האות שהתקבל. מתקבל ב-DBm.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Not in use</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">קו גובה- מציין גובה המיקום על פני הים.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Not in use</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">דיוק- עד כמה הנתונים מדוייקים, במטרים.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Not in use</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -601,7 +1006,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -609,20 +1014,46 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -630,11 +1061,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -668,6 +1114,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -884,7 +1366,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1182,19 +1664,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB7DC93-3FDB-4E1D-9AC1-2E3E85A60D4E}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="D1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.09765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="48.69921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="56.296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="56.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="6" width="46.69921875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.09765625" style="1"/>
+    <col min="6" max="6" width="46.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1220,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1237,10 +1719,10 @@
         <v>37</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1257,10 +1739,10 @@
         <v>39</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1277,7 +1759,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1294,10 +1776,10 @@
         <v>41</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1314,10 +1796,10 @@
         <v>44</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1334,7 +1816,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1354,7 +1836,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -1371,7 +1853,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -1385,7 +1867,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -1402,7 +1884,7 @@
         <v>88</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1416,23 +1898,832 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE76D2F-DA2A-4FCB-9788-EADCB0275E20}">
+  <dimension ref="A1:AI9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="13" style="13" customWidth="1"/>
+    <col min="10" max="10" width="20" style="13" customWidth="1"/>
+    <col min="11" max="11" width="12" style="13" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" style="13" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="13" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" style="13" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" style="13" customWidth="1"/>
+    <col min="16" max="23" width="20" style="13" customWidth="1"/>
+    <col min="24" max="24" width="22.5703125" style="13" customWidth="1"/>
+    <col min="25" max="25" width="20" style="13" customWidth="1"/>
+    <col min="26" max="26" width="22.28515625" style="13" customWidth="1"/>
+    <col min="27" max="27" width="20" style="13" customWidth="1"/>
+    <col min="28" max="28" width="24.5703125" style="13" customWidth="1"/>
+    <col min="29" max="29" width="20" style="13" customWidth="1"/>
+    <col min="30" max="30" width="21.28515625" style="13" customWidth="1"/>
+    <col min="31" max="31" width="20" style="13" customWidth="1"/>
+    <col min="32" max="32" width="21.85546875" style="13" customWidth="1"/>
+    <col min="33" max="33" width="21.7109375" style="18" customWidth="1"/>
+    <col min="34" max="36" width="19.28515625" style="13" customWidth="1"/>
+    <col min="37" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" s="23" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="U1" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="V1" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="W1" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="X1" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y1" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA1" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB1" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC1" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD1" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE1" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF1" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG1" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH1" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI1" s="20"/>
+    </row>
+    <row r="2" spans="1:35" ht="195" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z2" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB2" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC2" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD2" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE2" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF2" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG2" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH2" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" ht="315" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="V3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="X3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG3" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH3" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" ht="195" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="V4" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="X4" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y4" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z4" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA4" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB4" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC4" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD4" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE4" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF4" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG4" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH4" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="U5" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="V5" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="W5" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="X5" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y5" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z5" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA5" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB5" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC5" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD5" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE5" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF5" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG5" s="18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="X6" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y6" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z6" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA6" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB6" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC6" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD6" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE6" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF6" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG6" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="T7" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="U7" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="W7" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="X7" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y7" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z7" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA7" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC7" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD7" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE7" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF7" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{762BC438-58B3-4923-B652-B49F40252BF1}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:J22"/>
+    <sheetView rightToLeft="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.09765625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="5" customWidth="1"/>
     <col min="2" max="2" width="29" style="5" customWidth="1"/>
-    <col min="3" max="3" width="49.3984375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="29.59765625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" style="5" customWidth="1"/>
     <col min="5" max="5" width="21" style="5" customWidth="1"/>
     <col min="6" max="6" width="26" style="6" customWidth="1"/>
     <col min="7" max="9" width="9" style="5"/>
-    <col min="10" max="10" width="9.3984375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="5" customWidth="1"/>
     <col min="11" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -1468,7 +2759,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>62</v>
       </c>
@@ -1482,10 +2773,10 @@
         <v>66</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="132" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1525,7 +2816,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>80</v>
       </c>
@@ -1545,7 +2836,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>80</v>
       </c>
@@ -1572,7 +2863,7 @@
     </row>
     <row r="22" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
